--- a/biology/Botanique/Aegopodium/Aegopodium.xlsx
+++ b/biology/Botanique/Aegopodium/Aegopodium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aegopodium est un  genre de plantes herbacées de la famille des Apiaceae qui ne compte, en Europe, qu'une seule espèce largement répandue :  l'égopode podagraire (Aegopodium podagraria). C'est une des espèces de plantes appelée «herbe aux goutteux».
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme latin aegopodium est directement dérivé du grec aigopodion qui signifie littéralement « petit pied de chèvre » (d'aigeos (αἴγειος), « la chèvre » et podion (πόδιον), « petit pied, » diminutif neutre de pous (πούς), « le pied »), en référence à la forme des folioles, évoquant le sabot fourchu d’une petite chèvre.
 </t>
@@ -542,7 +556,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aegopodium alpestre
 Aegopodium handelii
